--- a/medicine/Mort/Huitième_amendement_de_la_Constitution_des_États-Unis/Huitième_amendement_de_la_Constitution_des_États-Unis.xlsx
+++ b/medicine/Mort/Huitième_amendement_de_la_Constitution_des_États-Unis/Huitième_amendement_de_la_Constitution_des_États-Unis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Huiti%C3%A8me_amendement_de_la_Constitution_des_%C3%89tats-Unis</t>
+          <t>Huitième_amendement_de_la_Constitution_des_États-Unis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Huitième amendement de la Constitution des États-Unis d'Amérique est l’article de la Déclaration des Droits qui interdit au gouvernement fédéral de condamner à des amendes ou cautions excessives ou à des peines cruelles et inhabituelles. Il a été ratifié en 1791. Les termes sont tirés de la Déclaration des droits anglaise de 1689.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Huiti%C3%A8me_amendement_de_la_Constitution_des_%C3%89tats-Unis</t>
+          <t>Huitième_amendement_de_la_Constitution_des_États-Unis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Texte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le texte du huitième amendement est le suivant : 
         « Excessive bail shall not be required, nor excessive fines imposed, nor cruel and unusual punishments inflicted »
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Huiti%C3%A8me_amendement_de_la_Constitution_des_%C3%89tats-Unis</t>
+          <t>Huitième_amendement_de_la_Constitution_des_États-Unis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,86 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La jurisprudence relative flotte, principalement autour de la question : La peine de mort est-elle constitutionnelle ?
 Cependant, la notion de traitement cruel ou inhumain est aussi évoquée à d'autres occasions.
-Peine de mort
-D'amendes excessives
-Concernant les amendes excessives, la Cour suprême considère que ces mesures ne s'appliquent pas aux procès civils[1].
-Autres domaines
-Voir par exemple, l'arrêt de la Cour suprême du 23 mai 2011, Brown v. Plata relatif à la surpopulation carcérale en Californie considérée comme un traitement inhumain et dégradant[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Huitième_amendement_de_la_Constitution_des_États-Unis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Huiti%C3%A8me_amendement_de_la_Constitution_des_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D'amendes excessives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concernant les amendes excessives, la Cour suprême considère que ces mesures ne s'appliquent pas aux procès civils.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Huitième_amendement_de_la_Constitution_des_États-Unis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Huiti%C3%A8me_amendement_de_la_Constitution_des_%C3%89tats-Unis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres domaines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir par exemple, l'arrêt de la Cour suprême du 23 mai 2011, Brown v. Plata relatif à la surpopulation carcérale en Californie considérée comme un traitement inhumain et dégradant[réf. nécessaire].
 </t>
         </is>
       </c>
